--- a/orcamentosParaClientes/OrcamentoGerado_Assoc. Beneficente Cultural e Esportiva de José Boiteux.xlsx
+++ b/orcamentosParaClientes/OrcamentoGerado_Assoc. Beneficente Cultural e Esportiva de José Boiteux.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\myxlsm\orcamentosParaClientes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46879D88-EEB4-45AE-AEF7-7E13D8BE4872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21260011-2AC2-4880-831E-BF0E5D1F9CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E1AB0D00-070C-46DD-8F14-614CAD119AAD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{19EBC81B-FDC4-45CC-B347-FA7263A61F41}"/>
   </bookViews>
   <sheets>
     <sheet name="resultado" sheetId="2" r:id="rId1"/>
@@ -671,7 +671,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF93D3C-4D9F-47A4-B33F-C1F2D8BC4831}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553F75BC-0CF0-4B49-9241-A33FB094097E}">
   <dimension ref="A3:I34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -969,7 +969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{549D79C6-29A9-43FF-ABCF-A8DC10C7D63C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F407F61A-4F46-4F6D-9E17-8E9D09893C99}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
